--- a/US/output/US_keyETCNEW.xlsx
+++ b/US/output/US_keyETCNEW.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UCMBVM.A</t>
+          <t>AGDSBLAUS.M</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DB_A_0001</t>
+          <t>DB_M_0001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -469,29 +469,37 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>United States Transportation Statistics, U.S. Vehicle-Miles, Transit, Commuter Bus*(1), Not Seasonally Adjusted, Unit: Millions of Miles, Source: Bureau Of Transportation Statistics, Note: (1)Motor bus, Commuter bus and Demand response figures are also included in the Bus figure for Highway.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Australia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>2011</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2020</v>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Millions of Miles</t>
+          <t>Millions of Dollars</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Commuter Bus</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -499,17 +507,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Bureau Of Transportation Statistics</t>
+          <t>Bureau Of Census</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>U.S. Vehicle-Miles</t>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Not Seasonally Adjusted</t>
+          <t>Seasonally Adjusted</t>
         </is>
       </c>
     </row>
@@ -524,7 +532,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HMFH16403.M</t>
+          <t>AGDSBLBEL.M</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,17 +542,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>data001</t>
+          <t>data002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>United States Treasury International Capital System, Portfolio Holdings of U.S. and Foreign Securities, Foreign Holdings of U.S. Securities, Major Foreign Holders, Ukraine, Not Seasonally Adjusted, Unit: Billions of United States Dollars, Source: Department Of The Treasury</t>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Belgium, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Balance</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -559,17 +567,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Billions of United States Dollars</t>
+          <t>Millions of Dollars</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Foreign Holdings of U.S. Securities</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -577,17 +585,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Department Of The Treasury</t>
+          <t>Bureau Of Census</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Portfolio Holdings of U.S. and Foreign Securities</t>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Not Seasonally Adjusted</t>
+          <t>Seasonally Adjusted</t>
         </is>
       </c>
     </row>
@@ -602,7 +610,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HMFH35319.M</t>
+          <t>AGDSBLIRE.M</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -612,17 +620,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>data002</t>
+          <t>data003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>United States Treasury International Capital System, Portfolio Holdings of U.S. and Foreign Securities, Foreign Holdings of U.S. Securities, Major Foreign Holders, Bahamas, Not Seasonally Adjusted, Unit: Billions of United States Dollars, Source: Department Of The Treasury</t>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Ireland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Balance</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -637,17 +645,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Billions of United States Dollars</t>
+          <t>Millions of Dollars</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Foreign Holdings of U.S. Securities</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -655,17 +663,2657 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Department Of The Treasury</t>
+          <t>Bureau Of Census</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Portfolio Holdings of U.S. and Foreign Securities</t>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AGDSBLMAL.M</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Malaysia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AGDSBLNETH.M</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Netherlands, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AGDSBLSWI.M</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Switzerland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AGDSEXAUS.M</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Australia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AGDSEXBEL.M</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Belgium, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AGDSEXIRE.M</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>data009</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Ireland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>9</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AGDSEXMAL.M</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>data010</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Malaysia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AGDSEXNETH.M</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Netherlands, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AGDSEXSWI.M</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Switzerland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AGDSIMAUS.M</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>data013</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Australia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AGDSIMBEL.M</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Belgium, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AGDSIMIRE.M</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Ireland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>15</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AGDSIMMAL.M</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Malaysia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AGDSIMNETH.M</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Netherlands, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>17</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AGDSIMSWI.M</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Switzerland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RIFLPBCIANM72_N.M</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DB_M_0001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>data019</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>United States Consumer Credit, Terms of Credit, Finance Rate On Consumer Installment Loans At Commercial Banks, New Autos 72 Month Loan, Not Seasonally Adjusted, Unit: , Source: Federal Reserve Board</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>19</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Federal Reserve Board</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Terms of Credit</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>Not Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AGDSBLAUS.Q</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>data001</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Australia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AGDSBLBEL.Q</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>data002</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Belgium, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>21</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AGDSBLIRE.Q</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>data003</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Ireland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>22</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AGDSBLMAL.Q</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>data004</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Malaysia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>23</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AGDSBLNETH.Q</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>data005</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Netherlands, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>24</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AGDSBLSWI.Q</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>data006</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Balance, Switzerland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>25</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AGDSEXAUS.Q</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>data007</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Australia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>26</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AGDSEXBEL.Q</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>data008</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Belgium, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>27</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AGDSEXIRE.Q</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>data009</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Ireland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>28</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>AGDSEXMAL.Q</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>data010</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Malaysia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>29</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AGDSEXNETH.Q</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>data011</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Netherlands, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>30</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AGDSEXSWI.Q</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>data012</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Exports, Switzerland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>31</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AGDSIMAUS.Q</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>data013</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Australia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>32</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AGDSIMBEL.Q</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Belgium, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>33</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AGDSIMIRE.Q</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Ireland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>34</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AGDSIMMAL.Q</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Malaysia, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>35</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AGDSIMNETH.Q</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Netherlands, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>36</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>AGDSIMSWI.Q</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DB_Q_0001</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>United States International Merchandise Trade, U.S. Trade in Goods by Selected Countries and Areas, Imports, Switzerland, Seasonally Adjusted, Unit: Millions of Dollars, Source: Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Imports</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Millions of Dollars</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>37</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Bureau Of Census</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>U.S. Trade in Goods by Selected Countries and Areas</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Seasonally Adjusted</t>
         </is>
       </c>
     </row>
